--- a/Inventario_noel/DatosProblemaInventario.xlsx
+++ b/Inventario_noel/DatosProblemaInventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeaeduco-my.sharepoint.com/personal/juan_jaen_udea_edu_co/Documents/Personal/CursosSjaen/Dinamica de sistemas/Clases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\RL_DS\Inventario_noel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C2A1CADA-8078-44C0-BE5E-3413791F7CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6E9AF-917A-4617-BFA3-8C34F5777CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Producto regular (Pallets/da)</t>
   </si>
@@ -66,10 +66,7 @@
     <t>Costo translado a bodega externa: 50 $/pallet</t>
   </si>
   <si>
-    <t>Costo por venta perdida</t>
-  </si>
-  <si>
-    <t>2000 $/pallets</t>
+    <t>Costo por venta perdida: 2000 $/pallets</t>
   </si>
 </sst>
 </file>
@@ -125,19 +122,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -419,6541 +428,6543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M361"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="14.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="60.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>1495.4021191860957</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>1439.7438723026701</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>1605.9103193121243</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>1562.2014262208695</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1332.25450770714</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>1418.0398752514757</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>1504.3226215203474</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>1402.9160590890697</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>1486.8580755665178</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>1406.9902063729039</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>1552.2227911374225</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>1518.431283833881</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>1356.999178442165</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>1344.0612005508783</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>1508.9695000427357</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1338.652744999674</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>1296.1342850438489</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>1357.6837072974035</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>1557.8158442035369</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1410.7822035545007</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>1495.2627104811679</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>1385.905370964791</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>1477.2421662366037</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>1383.7760729020563</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>1114.051425247085</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>1461.4723482647014</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>1581.5905825450773</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>1454.1913350054936</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>1371.1219118524486</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>1504.1091555968178</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>1397.4550931861211</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>1503.6016026882764</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>1420.2133367603035</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
         <v>1423.602387597645</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>1245.0190774249797</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>1387.8191650299234</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>1459.8277307709627</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
         <v>1485.6575259859039</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>1496.7598507601515</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
         <v>1419.0610907654216</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>1592.4211715524748</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>1465.4163439866177</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>1534.3312716518194</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>1441.6339087713482</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>1457.4532294300693</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
         <v>1460.2215592465857</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>1460.3989256181612</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
         <v>1386.6485443504753</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>1398.0859645386042</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
         <v>1504.5107438183807</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>1420.4904814940289</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
         <v>1374.2156360229878</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1528.2209692773483</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
         <v>1441.1217084005648</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>1623.3901101325043</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
         <v>1415.5137928170825</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>1500.4981647809191</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
         <v>1379.4277441313118</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>1537.1819716024734</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
         <v>1448.4266923187033</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>1403.9949392468427</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>1436.7384526733429</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>1427.8302962907414</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
         <v>1465.9120812629449</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>1380.430293409371</v>
       </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
         <v>1448.3963455753856</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>1527.8680091858166</v>
       </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
         <v>1510.0402084130462</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>1483.0163964656713</v>
       </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
         <v>1479.9243383417661</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2"/>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>1334.627782333936</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
         <v>1510.8931386136642</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>1502.401416413479</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
         <v>1387.7649230424281</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2"/>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>1431.2227966761816</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
         <v>1353.0139549913793</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>1225.1087072679184</v>
       </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
         <v>1507.1498360135022</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>1508.3853959748037</v>
       </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
         <v>1480.94522428388</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>1362.8060662698419</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
         <v>1455.0413311661321</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>1370.5560368356403</v>
       </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
         <v>1451.607541786879</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>1374.7138122094887</v>
       </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
         <v>1447.2605810369489</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>1390.6304235469111</v>
       </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
         <v>1390.6541619587592</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2"/>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>1494.3830721078236</v>
       </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
         <v>1423.4529879878448</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2"/>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>1371.2995432801843</v>
       </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
         <v>1400.9001862245502</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>1472.2968581178718</v>
       </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
         <v>1530.6162005553304</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2"/>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>1418.3347410734902</v>
       </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
         <v>1461.3035428651049</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2"/>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>1517.5439728465626</v>
       </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
         <v>1434.0549621652344</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2"/>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>1307.8476800092633</v>
       </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
         <v>1362.4298489307425</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>1319.0744207948615</v>
       </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
         <v>1475.1342816631231</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="4">
         <v>1454.9274037949817</v>
       </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
         <v>1456.8317447388658</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="4">
         <v>1554.1191469546566</v>
       </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
         <v>1378.8992717338203</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="4">
         <v>1576.5271524169584</v>
       </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
         <v>1473.7068670828357</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2"/>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="4">
         <v>1512.1230520678953</v>
       </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
         <v>1507.1856098067726</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="4">
         <v>1559.530811123765</v>
       </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
         <v>1497.2515501284561</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="4">
         <v>1358.5653488784353</v>
       </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
         <v>1495.5169286691921</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="4">
         <v>1222.5597461770717</v>
       </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
         <v>1464.2228681126446</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="4">
         <v>1344.3512245426382</v>
       </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
         <v>1384.4004839700178</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="4">
         <v>1461.8842364782397</v>
       </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
         <v>1489.5498275503251</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2"/>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="4">
         <v>1381.0349555584303</v>
       </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
         <v>1420.4162231039479</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>1404.9845572192576</v>
       </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
         <v>1417.766385420713</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2"/>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4">
         <v>1592.2163668510766</v>
       </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
         <v>1519.6142482998239</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>1592.8251285965703</v>
       </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
         <v>1441.5886751909541</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2"/>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>1450.617341233685</v>
       </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
         <v>1410.4589240454379</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2"/>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="4">
         <v>1490.2464830961042</v>
       </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
         <v>1424.9249190077287</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>1450.0899704791454</v>
       </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
         <v>1520.7600849755788</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="4">
         <v>1389.752148606183</v>
       </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
         <v>1530.3334069570324</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="4">
         <v>1388.7188104024945</v>
       </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
         <v>1461.6693906906576</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="4">
         <v>1517.0964523824016</v>
       </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
         <v>1504.007827032782</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2"/>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="4">
         <v>1727.1360984729654</v>
       </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
         <v>1412.1373947575571</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2"/>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="4">
         <v>1377.9762734122903</v>
       </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
         <v>1395.7673172527254</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2"/>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="4">
         <v>1318.1613283034212</v>
       </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
         <v>1429.3799405573984</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2"/>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="4">
         <v>1343.5688541803888</v>
       </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
         <v>1474.1816604683418</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2"/>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="4">
         <v>1443.4183919034569</v>
       </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
         <v>1443.0860291384415</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2"/>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="4">
         <v>1523.7636088039328</v>
       </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
         <v>1494.911910275307</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="4">
         <v>1390.7138701147462</v>
       </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
         <v>1447.8063096147484</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="4">
         <v>1516.3180451882201</v>
       </c>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
         <v>1525.1361837280479</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="4">
         <v>1446.4225567167077</v>
       </c>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
         <v>1420.9291631744798</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2"/>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="4">
         <v>1286.2218032912756</v>
       </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
         <v>1479.0195445488641</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2"/>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="4">
         <v>1362.2784845632975</v>
       </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
         <v>1419.7302044172911</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="4">
         <v>1425.6464257839914</v>
       </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
         <v>1448.1607476855597</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2"/>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="4">
         <v>1350.8626868579736</v>
       </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
         <v>1487.0920386963005</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2"/>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="4">
         <v>1631.5050993427565</v>
       </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
         <v>1432.6439073534166</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2"/>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="4">
         <v>1573.4097437053019</v>
       </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
         <v>1418.8975356185142</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2"/>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="4">
         <v>1343.1499815752529</v>
       </c>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
         <v>1362.5562658297986</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2"/>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="4">
         <v>1592.2750656145554</v>
       </c>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
         <v>1372.4956795809514</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2"/>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="4">
         <v>1582.5600077718184</v>
       </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
         <v>1462.6296206116926</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2"/>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="4">
         <v>1472.0619780842555</v>
       </c>
-      <c r="C90" s="6">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
         <v>1505.4335620330003</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2"/>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="4">
         <v>1559.5978865860964</v>
       </c>
-      <c r="C91" s="6">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
         <v>1477.8018226346924</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="4">
         <v>1322.6481727429293</v>
       </c>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
         <v>1400.0441907941904</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2"/>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="4">
         <v>1355.9873710490592</v>
       </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
         <v>1417.2749184334218</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="4">
         <v>1527.5730721100931</v>
       </c>
-      <c r="C94" s="6">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
         <v>1451.1519555595571</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="4">
         <v>1235.9976636526646</v>
       </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
         <v>1476.480726107374</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="4">
         <v>1480.5877950061474</v>
       </c>
-      <c r="C96" s="6">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
         <v>1388.1259170234703</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2"/>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="4">
         <v>1476.5222126346646</v>
       </c>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
         <v>1323.005414947489</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" s="2"/>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="4">
         <v>1581.4710625741604</v>
       </c>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
         <v>1380.8921452380364</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2"/>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="4">
         <v>1504.6113173886345</v>
       </c>
-      <c r="C99" s="6">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
         <v>1440.8592379969216</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2"/>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="4">
         <v>1344.8795043620062</v>
       </c>
-      <c r="C100" s="6">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
         <v>1469.8212115174201</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2"/>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="4">
         <v>1350.2827886904906</v>
       </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
         <v>1437.0306413740618</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2"/>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="4">
         <v>1417.3319345013097</v>
       </c>
-      <c r="C102" s="6">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
         <v>1379.8452793630756</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2"/>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="4">
         <v>1446.8051418546281</v>
       </c>
-      <c r="C103" s="6">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
         <v>1548.6253573640884</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2"/>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="4">
         <v>1279.6009872639729</v>
       </c>
-      <c r="C104" s="6">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
         <v>1382.6453836891853</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" s="2"/>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="4">
         <v>1471.2744043556652</v>
       </c>
-      <c r="C105" s="6">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
         <v>1417.7081167127824</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2"/>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="4">
         <v>1346.7498351247375</v>
       </c>
-      <c r="C106" s="6">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
         <v>1452.7825863386795</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2"/>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="4">
         <v>1517.7689251435729</v>
       </c>
-      <c r="C107" s="6">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
         <v>1432.8330670476141</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2"/>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="4">
         <v>1533.904900905241</v>
       </c>
-      <c r="C108" s="6">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
         <v>1414.927722894354</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2"/>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="4">
         <v>1197.0155139016583</v>
       </c>
-      <c r="C109" s="6">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
         <v>1406.9946821588571</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2"/>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="4">
         <v>1362.5952148201195</v>
       </c>
-      <c r="C110" s="6">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
         <v>1519.1326129211573</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2"/>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="4">
         <v>1477.3280449951596</v>
       </c>
-      <c r="C111" s="6">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
         <v>1392.1026560363664</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" s="2"/>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="4">
         <v>1445.1543265883095</v>
       </c>
-      <c r="C112" s="6">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="5">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
         <v>1482.649383269717</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2"/>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="4">
         <v>1489.9843991423895</v>
       </c>
-      <c r="C113" s="6">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
         <v>1414.1543232941974</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2"/>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="4">
         <v>1456.9276284656369</v>
       </c>
-      <c r="C114" s="6">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114" s="5">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
         <v>1462.2414272021656</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2"/>
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="4">
         <v>1399.3891214840107</v>
       </c>
-      <c r="C115" s="6">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
         <v>1488.5201191003123</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" s="2"/>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="4">
         <v>1438.7462134671721</v>
       </c>
-      <c r="C116" s="6">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
         <v>1415.3497614647506</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2"/>
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="4">
         <v>1463.7342002682904</v>
       </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
         <v>1439.3720600622387</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" s="2"/>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="4">
         <v>1449.064762076222</v>
       </c>
-      <c r="C118" s="6">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="C118" s="5">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
         <v>1493.9213901914056</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" s="2"/>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="4">
         <v>1505.6481585832062</v>
       </c>
-      <c r="C119" s="6">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
         <v>1505.6226572841254</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119" s="2"/>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="4">
         <v>1297.2287684743233</v>
       </c>
-      <c r="C120" s="6">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
         <v>1487.181893550219</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120" s="2"/>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="4">
         <v>1501.9701092452804</v>
       </c>
-      <c r="C121" s="6">
-        <v>0</v>
-      </c>
-      <c r="D121" s="1">
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
         <v>1392.5071379182855</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2"/>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="4">
         <v>1532.6137696565204</v>
       </c>
-      <c r="C122" s="6">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="C122" s="5">
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
         <v>1378.8678939251395</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2"/>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="4">
         <v>1311.334612543513</v>
       </c>
-      <c r="C123" s="6">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123" s="5">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
         <v>1513.5130818744208</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2"/>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="4">
         <v>1405.6742912191958</v>
       </c>
-      <c r="C124" s="6">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124" s="5">
+        <v>0</v>
+      </c>
+      <c r="D124" s="4">
         <v>1454.225428934601</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2"/>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="4">
         <v>1353.7349938573391</v>
       </c>
-      <c r="C125" s="6">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
         <v>1492.3237341075533</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2"/>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="4">
         <v>1460.1210754140209</v>
       </c>
-      <c r="C126" s="6">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1">
+      <c r="C126" s="5">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
         <v>1476.1816166402634</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126" s="2"/>
+      <c r="E126" s="6">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="4">
         <v>1458.0271298745117</v>
       </c>
-      <c r="C127" s="6">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1">
+      <c r="C127" s="5">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
         <v>1401.4564438666944</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2"/>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="4">
         <v>1405.4976556486492</v>
       </c>
-      <c r="C128" s="6">
-        <v>0</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="C128" s="5">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
         <v>1473.4833353290967</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" s="2"/>
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="4">
         <v>1546.4341984291605</v>
       </c>
-      <c r="C129" s="6">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
         <v>1463.7591145161034</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2"/>
+      <c r="E129" s="6">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="4">
         <v>1612.9124279791254</v>
       </c>
-      <c r="C130" s="6">
-        <v>0</v>
-      </c>
-      <c r="D130" s="1">
+      <c r="C130" s="5">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
         <v>1419.474006481752</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130" s="2"/>
+      <c r="E130" s="6">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="4">
         <v>1605.5535278479138</v>
       </c>
-      <c r="C131" s="6">
-        <v>0</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="C131" s="5">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
         <v>1398.62341446459</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2"/>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="4">
         <v>1590.7587286029031</v>
       </c>
-      <c r="C132" s="6">
-        <v>0</v>
-      </c>
-      <c r="D132" s="1">
+      <c r="C132" s="5">
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
         <v>1361.7774269970446</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2"/>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="4">
         <v>1548.7660002099842</v>
       </c>
-      <c r="C133" s="6">
-        <v>0</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+      <c r="D133" s="4">
         <v>1472.8717313728894</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2"/>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="4">
         <v>1274.6760163390811</v>
       </c>
-      <c r="C134" s="6">
-        <v>0</v>
-      </c>
-      <c r="D134" s="1">
+      <c r="C134" s="5">
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
         <v>1507.293105231782</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" s="2"/>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="4">
         <v>1372.2248487381926</v>
       </c>
-      <c r="C135" s="6">
-        <v>0</v>
-      </c>
-      <c r="D135" s="1">
+      <c r="C135" s="5">
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
         <v>1454.7151601924577</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" s="2"/>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="4">
         <v>1453.8791073866785</v>
       </c>
-      <c r="C136" s="6">
-        <v>0</v>
-      </c>
-      <c r="D136" s="1">
+      <c r="C136" s="5">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
         <v>1473.9733898153593</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" s="2"/>
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="4">
         <v>1488.8686536177497</v>
       </c>
-      <c r="C137" s="6">
-        <v>0</v>
-      </c>
-      <c r="D137" s="1">
+      <c r="C137" s="5">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
         <v>1454.1580469014766</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" s="2"/>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="4">
         <v>1570.0443475330017</v>
       </c>
-      <c r="C138" s="6">
-        <v>0</v>
-      </c>
-      <c r="D138" s="1">
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
         <v>1485.4580944177674</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138" s="2"/>
+      <c r="E138" s="6">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="4">
         <v>1610.0204296105958</v>
       </c>
-      <c r="C139" s="6">
-        <v>0</v>
-      </c>
-      <c r="D139" s="1">
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
         <v>1532.6391687358496</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" s="2"/>
+      <c r="E139" s="6">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="4">
         <v>1536.9357399156395</v>
       </c>
-      <c r="C140" s="6">
-        <v>0</v>
-      </c>
-      <c r="D140" s="1">
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
         <v>1420.0590986470545</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" s="2"/>
+      <c r="E140" s="6">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="4">
         <v>1400.9051735323749</v>
       </c>
-      <c r="C141" s="6">
-        <v>0</v>
-      </c>
-      <c r="D141" s="1">
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
         <v>1449.8874532732984</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2"/>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="4">
         <v>1489.8012927562856</v>
       </c>
       <c r="C142" s="7">
         <v>22.840821089881942</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="4">
         <v>1521.5096672363268</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2"/>
+      <c r="E142" s="6">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="4">
         <v>1610.9491807585985</v>
       </c>
       <c r="C143" s="7">
         <v>41.300664473140174</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="4">
         <v>1395.3893207131018</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2"/>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="4">
         <v>1304.6724867317566</v>
       </c>
       <c r="C144" s="7">
         <v>63.427145467975542</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="4">
         <v>1469.0987429779225</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2"/>
+      <c r="E144" s="6">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="4">
         <v>1524.5690266026315</v>
       </c>
       <c r="C145" s="7">
         <v>102.7751964734114</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="4">
         <v>1454.8183942351729</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2"/>
+      <c r="E145" s="6">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="4">
         <v>1614.7029436061232</v>
       </c>
       <c r="C146" s="7">
         <v>109.38661512391758</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="4">
         <v>1524.7587865430789</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146" s="2"/>
+      <c r="E146" s="6">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="4">
         <v>1515.4819204982034</v>
       </c>
       <c r="C147" s="7">
         <v>138.94568416468832</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="4">
         <v>1363.2843540685781</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" s="2"/>
+      <c r="E147" s="6">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="4">
         <v>1453.5734330360644</v>
       </c>
       <c r="C148" s="7">
         <v>154.21911994571272</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="4">
         <v>1467.6016370500026</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" s="2"/>
+      <c r="E148" s="6">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="4">
         <v>1538.5125588442022</v>
       </c>
       <c r="C149" s="7">
         <v>175.71692689057861</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="4">
         <v>1453.0871470922104</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" s="2"/>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="4">
         <v>1451.6430246403634</v>
       </c>
       <c r="C150" s="7">
         <v>191.93164897069386</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="4">
         <v>1475.3911070739136</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150" s="2"/>
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="4">
         <v>1458.4898181104436</v>
       </c>
       <c r="C151" s="7">
         <v>246.16152510292912</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="4">
         <v>1395.3682869707311</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" s="2"/>
+      <c r="E151" s="6">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="4">
         <v>1496.9738501188931</v>
       </c>
       <c r="C152" s="7">
         <v>274.73670300909242</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="4">
         <v>1447.6585457955539</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" s="2"/>
+      <c r="E152" s="6">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="4">
         <v>1456.6661308519901</v>
       </c>
       <c r="C153" s="7">
         <v>283.54003914331287</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="4">
         <v>1465.6145300689766</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" s="2"/>
+      <c r="E153" s="6">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="4">
         <v>1597.1613071979889</v>
       </c>
       <c r="C154" s="7">
         <v>322.32860823691243</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="4">
         <v>1452.685019907409</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154" s="2"/>
+      <c r="E154" s="6">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="4">
         <v>1240.4324761196431</v>
       </c>
       <c r="C155" s="7">
         <v>368.28811414559624</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="4">
         <v>1439.8894700078793</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" s="2"/>
+      <c r="E155" s="6">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="4">
         <v>1181.8169143211878</v>
       </c>
       <c r="C156" s="7">
         <v>367.12618472906325</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="4">
         <v>1441.4881072814048</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156" s="2"/>
+      <c r="E156" s="6">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="4">
         <v>1371.3114887819147</v>
       </c>
       <c r="C157" s="7">
         <v>366.55798227953744</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="4">
         <v>1489.8018248839635</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157" s="2"/>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="4">
         <v>1668.8204913767217</v>
       </c>
       <c r="C158" s="7">
         <v>359.09143260506943</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="4">
         <v>1401.9592398920829</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158" s="2"/>
+      <c r="E158" s="6">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="4">
         <v>1413.2962204340756</v>
       </c>
       <c r="C159" s="7">
         <v>378.66156593170871</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="4">
         <v>1483.6822237958595</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159" s="2"/>
+      <c r="E159" s="6">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="4">
         <v>1440.5102312679594</v>
       </c>
       <c r="C160" s="7">
         <v>390.2513411878117</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="4">
         <v>1386.1956477036042</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160" s="2"/>
+      <c r="E160" s="6">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="4">
         <v>1278.7317571510102</v>
       </c>
       <c r="C161" s="7">
         <v>359.06504673802851</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="4">
         <v>1356.4303105334486</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161" s="2"/>
+      <c r="E161" s="6">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="4">
         <v>1400.7616988064735</v>
       </c>
       <c r="C162" s="7">
         <v>480.15653794252256</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="4">
         <v>1582.702070525535</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162" s="2"/>
+      <c r="E162" s="6">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="4">
         <v>1511.3000085132262</v>
       </c>
       <c r="C163" s="7">
         <v>485.40539012041478</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="4">
         <v>1359.7952820434573</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163" s="2"/>
+      <c r="E163" s="6">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="4">
         <v>1360.9409917548326</v>
       </c>
       <c r="C164" s="7">
         <v>547.9664916084954</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="4">
         <v>1400.6649940650377</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164" s="2"/>
+      <c r="E164" s="6">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="4">
         <v>1421.3953579399658</v>
       </c>
       <c r="C165" s="7">
         <v>579.3663508683785</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="4">
         <v>1425.5386349961677</v>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165" s="2"/>
+      <c r="E165" s="6">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="4">
         <v>1606.0643208954045</v>
       </c>
       <c r="C166" s="7">
         <v>617.48325994515505</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="4">
         <v>1424.8133601202701</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" s="2"/>
+      <c r="E166" s="6">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="4">
         <v>1307.001470659894</v>
       </c>
       <c r="C167" s="7">
         <v>608.69025905268336</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="4">
         <v>1422.9083751593321</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167" s="2"/>
+      <c r="E167" s="6">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="4">
         <v>1407.71568129303</v>
       </c>
       <c r="C168" s="7">
         <v>575.69074588659055</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="4">
         <v>1520.2062579364467</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168" s="2"/>
+      <c r="E168" s="6">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="4">
         <v>1414.0347990205353</v>
       </c>
       <c r="C169" s="7">
         <v>595.27288595992218</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="4">
         <v>1435.9193216564186</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169" s="2"/>
+      <c r="E169" s="6">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="4">
         <v>1426.8082352458257</v>
       </c>
       <c r="C170" s="7">
         <v>632.259411260805</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="4">
         <v>1429.036439170919</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170" s="2"/>
+      <c r="E170" s="6">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="4">
         <v>1532.1793379503613</v>
       </c>
       <c r="C171" s="7">
         <v>765.31947653745954</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="4">
         <v>1389.7032588400079</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" s="2"/>
+      <c r="E171" s="6">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="4">
         <v>1412.158308818372</v>
       </c>
       <c r="C172" s="7">
         <v>627.73606683822004</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="4">
         <v>1443.5601160227513</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172" s="2"/>
+      <c r="E172" s="6">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="4">
         <v>1545.2564416901687</v>
       </c>
       <c r="C173" s="7">
         <v>641.2410681590643</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="4">
         <v>1419.1632145030294</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173" s="2"/>
+      <c r="E173" s="6">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="4">
         <v>1490.9540869089058</v>
       </c>
       <c r="C174" s="7">
         <v>654.9916462205357</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="4">
         <v>1470.5269613684331</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174" s="2"/>
+      <c r="E174" s="6">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="4">
         <v>1634.9302575967822</v>
       </c>
       <c r="C175" s="7">
         <v>748.58750532695558</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="4">
         <v>1446.0401011355666</v>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175" s="2"/>
+      <c r="E175" s="6">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="4">
         <v>1318.2054228353686</v>
       </c>
       <c r="C176" s="7">
         <v>806.11461307811351</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="4">
         <v>1450.8496149520363</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176" s="2"/>
+      <c r="E176" s="6">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="4">
         <v>1385.0248565434729</v>
       </c>
       <c r="C177" s="7">
         <v>685.95797239616206</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="4">
         <v>1507.112854033363</v>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177" s="2"/>
+      <c r="E177" s="6">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="4">
         <v>1428.0777832885042</v>
       </c>
       <c r="C178" s="7">
         <v>810.00879979011427</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="4">
         <v>1391.3633233543746</v>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178" s="2"/>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="4">
         <v>1361.2404421275326</v>
       </c>
       <c r="C179" s="7">
         <v>790.3055637595487</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="4">
         <v>1429.236813963076</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179" s="2"/>
+      <c r="E179" s="6">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="4">
         <v>1232.1609980758487</v>
       </c>
       <c r="C180" s="7">
         <v>854.26158832308397</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="4">
         <v>1466.6950688331176</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180" s="2"/>
+      <c r="E180" s="6">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="4">
         <v>1467.7753326318136</v>
       </c>
       <c r="C181" s="7">
         <v>771.5360218524329</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="4">
         <v>1470.5442654878318</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181" s="2"/>
+      <c r="E181" s="6">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="4">
         <v>1391.5543353262021</v>
       </c>
       <c r="C182" s="7">
         <v>849.28863848338801</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="4">
         <v>1401.1680376437191</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182" s="2"/>
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="4">
         <v>1446.4058328572235</v>
       </c>
       <c r="C183" s="7">
         <v>798.90562093208189</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="4">
         <v>1549.9474872071182</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2"/>
+      <c r="E183" s="6">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="4">
         <v>1434.9789795336258</v>
       </c>
       <c r="C184" s="7">
         <v>927.23320645316915</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="4">
         <v>1363.5435408469521</v>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184" s="2"/>
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="4">
         <v>1468.5507972221169</v>
       </c>
       <c r="C185" s="7">
         <v>1084.2946095261316</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="4">
         <v>1425.154653748084</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185" s="2"/>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="4">
         <v>1291.0363129594723</v>
       </c>
       <c r="C186" s="7">
         <v>968.19468703829477</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="4">
         <v>1466.2920625717506</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186" s="2"/>
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="4">
         <v>1452.7043596811909</v>
       </c>
       <c r="C187" s="7">
         <v>863.97710736266038</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="4">
         <v>1500.5474798600249</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187" s="2"/>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="4">
         <v>1731.9125262358541</v>
       </c>
       <c r="C188" s="7">
         <v>969.80460101563642</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="4">
         <v>1533.2730093941218</v>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188" s="2"/>
+      <c r="E188" s="6">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="4">
         <v>1538.9380567159976</v>
       </c>
       <c r="C189" s="7">
         <v>1056.2706764624127</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="4">
         <v>1478.3970904379023</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189" s="2"/>
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="4">
         <v>1561.1915049734839</v>
       </c>
       <c r="C190" s="7">
         <v>926.64317971470041</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="4">
         <v>1398.4557941477935</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190" s="2"/>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="4">
         <v>1342.3357056038017</v>
       </c>
       <c r="C191" s="7">
         <v>971.69369410746492</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="4">
         <v>1420.3760098519717</v>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191" s="2"/>
+      <c r="E191" s="6">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="4">
         <v>1446.7591055634632</v>
       </c>
       <c r="C192" s="7">
         <v>1044.8555898071295</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="4">
         <v>1372.4721866164575</v>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192" s="2"/>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="4">
         <v>1258.053295419463</v>
       </c>
       <c r="C193" s="7">
         <v>1043.1794274358297</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="4">
         <v>1443.0883286363967</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193" s="2"/>
+      <c r="E193" s="6">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="4">
         <v>1481.1238015270562</v>
       </c>
       <c r="C194" s="7">
         <v>1119.4334321019808</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="4">
         <v>1462.4376560669587</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194" s="2"/>
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="4">
         <v>1680.6387723262824</v>
       </c>
       <c r="C195" s="7">
         <v>1065.2795896922162</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="4">
         <v>1445.2924567695445</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195" s="2"/>
+      <c r="E195" s="6">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="4">
         <v>1345.2264810020481</v>
       </c>
       <c r="C196" s="7">
         <v>978.26105133279839</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="4">
         <v>1466.7616362037838</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196" s="2"/>
+      <c r="E196" s="6">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="4">
         <v>1461.518320565749</v>
       </c>
       <c r="C197" s="7">
         <v>1081.8733466372914</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="4">
         <v>1499.0206526497684</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197" s="2"/>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="4">
         <v>1430.2227393961673</v>
       </c>
       <c r="C198" s="7">
         <v>1122.6585140794148</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="4">
         <v>1403.8371224957837</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198" s="2"/>
+      <c r="E198" s="6">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="4">
         <v>1430.5800686638149</v>
       </c>
       <c r="C199" s="7">
         <v>1185.4204861944495</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="4">
         <v>1401.7641819374257</v>
       </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199" s="2"/>
+      <c r="E199" s="6">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="4">
         <v>1207.7314007088437</v>
       </c>
       <c r="C200" s="7">
         <v>1208.2135956749578</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="4">
         <v>1476.7803301444214</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200" s="2"/>
+      <c r="E200" s="6">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="4">
         <v>1574.4055709013267</v>
       </c>
       <c r="C201" s="7">
         <v>1223.6237078327013</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="4">
         <v>1441.5728252761489</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" s="2"/>
+      <c r="E201" s="6">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="4">
         <v>1321.4576074930649</v>
       </c>
       <c r="C202" s="7">
         <v>1253.0168442251263</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="4">
         <v>1418.1445074966443</v>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202" s="2"/>
+      <c r="E202" s="6">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="4">
         <v>1489.7458183827991</v>
       </c>
       <c r="C203" s="7">
         <v>1206.0798683779544</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="4">
         <v>1459.5972840484301</v>
       </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203" s="2"/>
+      <c r="E203" s="6">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="4">
         <v>1483.9341414465139</v>
       </c>
       <c r="C204" s="7">
         <v>1202.7531690482626</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="4">
         <v>1399.2309288416845</v>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204" s="2"/>
+      <c r="E204" s="6">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="4">
         <v>1483.4603240000845</v>
       </c>
       <c r="C205" s="7">
         <v>1241.2391391533772</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="4">
         <v>1378.8293386927867</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="4">
         <v>37.977795121865348</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="4">
         <v>1535.2192587082341</v>
       </c>
       <c r="C206" s="7">
         <v>1220.4673716562631</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="4">
         <v>1459.3454394120411</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="4">
         <v>84.84083470730377</v>
       </c>
-      <c r="F206" s="2"/>
+      <c r="F206" s="1"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="4">
         <v>1373.2381216867664</v>
       </c>
       <c r="C207" s="7">
         <v>1309.411976793637</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="4">
         <v>1475.3612447653429</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="4">
         <v>134.71420206715308</v>
       </c>
-      <c r="F207" s="2"/>
+      <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="4">
         <v>1595.5863421256474</v>
       </c>
       <c r="C208" s="7">
         <v>1395.9981621332377</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="4">
         <v>1436.9741217944643</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="4">
         <v>163.65561747924022</v>
       </c>
-      <c r="F208" s="2"/>
+      <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="4">
         <v>1492.35204792795</v>
       </c>
       <c r="C209" s="7">
         <v>1358.4138412386872</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="4">
         <v>1478.6225505725788</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="4">
         <v>229.96563334517197</v>
       </c>
-      <c r="F209" s="2"/>
+      <c r="F209" s="1"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="4">
         <v>1251.2331590579088</v>
       </c>
       <c r="C210" s="7">
         <v>1279.9256742503364</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="4">
         <v>1402.747681104406</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="4">
         <v>232.98038046838067</v>
       </c>
-      <c r="F210" s="2"/>
+      <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="4">
         <v>1581.1669947696901</v>
       </c>
       <c r="C211" s="7">
         <v>1361.6671018983843</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="4">
         <v>1380.0607738586823</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="4">
         <v>266.35804689829052</v>
       </c>
-      <c r="F211" s="2"/>
+      <c r="F211" s="1"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="4">
         <v>1484.1523561440747</v>
       </c>
       <c r="C212" s="7">
         <v>1442.0123849871925</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="4">
         <v>1492.3958232677057</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="4">
         <v>324.90321956141412</v>
       </c>
-      <c r="F212" s="2"/>
+      <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="4">
         <v>1426.898283293644</v>
       </c>
       <c r="C213" s="7">
         <v>1097.0232665168289</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="4">
         <v>1500.2649236139832</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="4">
         <v>350.19408921527338</v>
       </c>
-      <c r="F213" s="2"/>
+      <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="4">
         <v>1562.9953162038937</v>
       </c>
       <c r="C214" s="7">
         <v>1298.4556657270716</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="4">
         <v>1484.5666466996968</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="4">
         <v>454.07939785351999</v>
       </c>
-      <c r="F214" s="2"/>
+      <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="4">
         <v>1487.9762715553929</v>
       </c>
       <c r="C215" s="7">
         <v>1289.0773926001482</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="4">
         <v>1465.38773742029</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="4">
         <v>397.12378977763467</v>
       </c>
-      <c r="F215" s="2"/>
+      <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="4">
         <v>1504.3850929559362</v>
       </c>
       <c r="C216" s="7">
         <v>1194.4903487635836</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="4">
         <v>1394.7483310290759</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="4">
         <v>458.54525521814907</v>
       </c>
-      <c r="F216" s="2"/>
+      <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="4">
         <v>1608.1112942484142</v>
       </c>
       <c r="C217" s="7">
         <v>1380.4858149365384</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="4">
         <v>1456.1679379311195</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="4">
         <v>568.89982955597384</v>
       </c>
-      <c r="F217" s="2"/>
+      <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="4">
         <v>1403.1029767552989</v>
       </c>
       <c r="C218" s="7">
         <v>1334.1252254159422</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="4">
         <v>1531.9861075075321</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="4">
         <v>593.54472332251351</v>
       </c>
-      <c r="F218" s="2"/>
+      <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="4">
         <v>1276.5547023852282</v>
       </c>
       <c r="C219" s="7">
         <v>1398.2764425257976</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="4">
         <v>1456.3074912071972</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="4">
         <v>553.37629415228537</v>
       </c>
-      <c r="F219" s="2"/>
+      <c r="F219" s="1"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="4">
         <v>1474.0757601407875</v>
       </c>
       <c r="C220" s="7">
         <v>1522.8057108203764</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="4">
         <v>1491.0211767292574</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="4">
         <v>737.90588780858161</v>
       </c>
-      <c r="F220" s="2"/>
+      <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="4">
         <v>1440.5240335945034</v>
       </c>
       <c r="C221" s="7">
         <v>1355.8422875560457</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="4">
         <v>1535.2946412140004</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="4">
         <v>652.47688722303667</v>
       </c>
-      <c r="F221" s="2"/>
+      <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="4">
         <v>1774.0523170368992</v>
       </c>
       <c r="C222" s="7">
         <v>1365.3796082156894</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="4">
         <v>1516.3579684488288</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="4">
         <v>729.49957368073171</v>
       </c>
-      <c r="F222" s="2"/>
+      <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="4">
         <v>1611.9131382131204</v>
       </c>
       <c r="C223" s="7">
         <v>1411.4983524880081</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="4">
         <v>1464.0154173157848</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="4">
         <v>831.62841359491108</v>
       </c>
-      <c r="F223" s="2"/>
+      <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="4">
         <v>1294.7222543383525</v>
       </c>
       <c r="C224" s="7">
         <v>1605.0029343136605</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="4">
         <v>1448.6571124044863</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="4">
         <v>874.63197077541361</v>
       </c>
-      <c r="F224" s="2"/>
+      <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="4">
         <v>1364.232876935708</v>
       </c>
       <c r="C225" s="7">
         <v>1578.8974360191448</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="4">
         <v>1334.4918517470055</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="4">
         <v>787.31767957230682</v>
       </c>
-      <c r="F225" s="2"/>
+      <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="4">
         <v>1368.1456182666795</v>
       </c>
       <c r="C226" s="7">
         <v>1520.4970073332013</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="4">
         <v>1458.0286833596742</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="4">
         <v>908.86273590061353</v>
       </c>
-      <c r="F226" s="2"/>
+      <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="4">
         <v>1496.5762779021929</v>
       </c>
       <c r="C227" s="7">
         <v>1529.0169063748149</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="4">
         <v>1458.9727000458756</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="4">
         <v>1055.9004179377396</v>
       </c>
-      <c r="F227" s="2"/>
+      <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="4">
         <v>1568.9239396356386</v>
       </c>
       <c r="C228" s="7">
         <v>1488.8467097258831</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="4">
         <v>1398.3828563321472</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="4">
         <v>1019.5604344299934</v>
       </c>
-      <c r="F228" s="2"/>
+      <c r="F228" s="1"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="4">
         <v>1609.1524737253942</v>
       </c>
       <c r="C229" s="7">
         <v>1334.0607219344495</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="4">
         <v>1497.397054742609</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="4">
         <v>792.35903545218605</v>
       </c>
-      <c r="F229" s="2"/>
+      <c r="F229" s="1"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="4">
         <v>1539.4175824386241</v>
       </c>
       <c r="C230" s="7">
         <v>1481.7323137695569</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="4">
         <v>1428.921961268803</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="4">
         <v>982.20901352054534</v>
       </c>
-      <c r="F230" s="2"/>
+      <c r="F230" s="1"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="4">
         <v>1525.5831701348829</v>
       </c>
       <c r="C231" s="7">
         <v>1455.4256157949933</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="4">
         <v>1452.1559352317954</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="4">
         <v>1073.7735388125645</v>
       </c>
-      <c r="F231" s="2"/>
+      <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="4">
         <v>1346.8393924407451</v>
       </c>
       <c r="C232" s="7">
         <v>1300.9204564570946</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="4">
         <v>1558.2123391759617</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="4">
         <v>966.96107321188015</v>
       </c>
-      <c r="F232" s="2"/>
+      <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="4">
         <v>1578.2895214595596</v>
       </c>
       <c r="C233" s="7">
         <v>1543.8657622422368</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="4">
         <v>1333.2098295952567</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="4">
         <v>1011.8389130800797</v>
       </c>
-      <c r="F233" s="2"/>
+      <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="4">
         <v>1428.7960477051886</v>
       </c>
       <c r="C234" s="7">
         <v>1261.6592485597437</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="4">
         <v>1467.288998191141</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="4">
         <v>1319.3784343267414</v>
       </c>
-      <c r="F234" s="2"/>
+      <c r="F234" s="1"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="4">
         <v>1422.8864392633918</v>
       </c>
       <c r="C235" s="7">
         <v>1576.2394700112343</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="4">
         <v>1424.9356599785342</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="4">
         <v>1308.6312385672225</v>
       </c>
-      <c r="F235" s="2"/>
+      <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="4">
         <v>1333.8724843103118</v>
       </c>
       <c r="C236" s="7">
         <v>1352.4340105836216</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="4">
         <v>1499.1458083520693</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="4">
         <v>1275.3565186112171</v>
       </c>
-      <c r="F236" s="2"/>
+      <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="4">
         <v>1585.1753590764038</v>
       </c>
       <c r="C237" s="7">
         <v>1464.5552229072568</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="4">
         <v>1451.4802632918843</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237" s="4">
         <v>1306.6402937747241</v>
       </c>
-      <c r="F237" s="2"/>
+      <c r="F237" s="1"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="4">
         <v>1540.2866639637807</v>
       </c>
       <c r="C238" s="7">
         <v>1621.9426366035739</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="4">
         <v>1484.6297648203474</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="4">
         <v>1323.7270875906518</v>
       </c>
-      <c r="F238" s="2"/>
+      <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="4">
         <v>1512.1406306851527</v>
       </c>
       <c r="C239" s="7">
         <v>1225.3437932846102</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="4">
         <v>1423.3778921522105</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239" s="4">
         <v>1363.6454706720374</v>
       </c>
-      <c r="F239" s="2"/>
+      <c r="F239" s="1"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="4">
         <v>1440.7181075577455</v>
       </c>
       <c r="C240" s="7">
         <v>1420.9479675551065</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="4">
         <v>1558.1532671040798</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="4">
         <v>1219.9018260802088</v>
       </c>
-      <c r="F240" s="2"/>
+      <c r="F240" s="1"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="4">
         <v>1565.7291304872087</v>
       </c>
       <c r="C241" s="7">
         <v>1417.8020728274153</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="4">
         <v>1440.9114106538627</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241" s="4">
         <v>1429.8597770746003</v>
       </c>
-      <c r="F241" s="2"/>
+      <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="4">
         <v>1572.432085644416</v>
       </c>
       <c r="C242" s="7">
         <v>1445.5389750682932</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="4">
         <v>1422.9414863291843</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="4">
         <v>1454.0404159869825</v>
       </c>
-      <c r="F242" s="2"/>
+      <c r="F242" s="1"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="4">
         <v>1361.3889391927378</v>
       </c>
       <c r="C243" s="7">
         <v>1487.5773797727234</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="4">
         <v>1583.1451204537602</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E243" s="4">
         <v>1464.0255510702425</v>
       </c>
-      <c r="F243" s="2"/>
+      <c r="F243" s="1"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="4">
         <v>1420.2831806513168</v>
       </c>
       <c r="C244" s="7">
         <v>1474.3919333490808</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="4">
         <v>1443.7219124540422</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="4">
         <v>1713.543161612421</v>
       </c>
-      <c r="F244" s="2"/>
+      <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="4">
         <v>1505.2719542476686</v>
       </c>
       <c r="C245" s="7">
         <v>1600.8499249565227</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="4">
         <v>1441.7484998847519</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E245" s="4">
         <v>1415.9509693694979</v>
       </c>
-      <c r="F245" s="2"/>
+      <c r="F245" s="1"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="4">
         <v>1343.067314971313</v>
       </c>
       <c r="C246" s="7">
         <v>1310.9278444919055</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="4">
         <v>1437.0371085260167</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E246" s="4">
         <v>1505.844833393342</v>
       </c>
-      <c r="F246" s="2"/>
+      <c r="F246" s="1"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="4">
         <v>1598.4480626804036</v>
       </c>
       <c r="C247" s="7">
         <v>1425.2470271796644</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="4">
         <v>1468.9730433154373</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E247" s="4">
         <v>1597.8175991125072</v>
       </c>
-      <c r="F247" s="2"/>
+      <c r="F247" s="1"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="4">
         <v>1364.0300351845326</v>
       </c>
       <c r="C248" s="7">
         <v>1546.9946315831307</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="4">
         <v>1380.727593500003</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="4">
         <v>1679.6213194242923</v>
       </c>
-      <c r="F248" s="2"/>
+      <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="4">
         <v>1478.3417620196099</v>
       </c>
       <c r="C249" s="7">
         <v>1443.2339884449029</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="4">
         <v>1478.1793939979825</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249" s="4">
         <v>1622.7429965920194</v>
       </c>
-      <c r="F249" s="2"/>
+      <c r="F249" s="1"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="4">
         <v>1506.3501579039255</v>
       </c>
       <c r="C250" s="7">
         <v>1451.2914106789285</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="4">
         <v>1487.3913582742907</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250" s="4">
         <v>1675.0045195257685</v>
       </c>
-      <c r="F250" s="2"/>
+      <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="4">
         <v>1368.981466268948</v>
       </c>
       <c r="C251" s="7">
         <v>1515.2344602246467</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="4">
         <v>1410.418351311991</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251" s="4">
         <v>1775.4567278645582</v>
       </c>
-      <c r="F251" s="2"/>
+      <c r="F251" s="1"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="4">
         <v>1631.5827268828234</v>
       </c>
       <c r="C252" s="7">
         <v>1360.3619261794317</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="4">
         <v>1433.1233391489036</v>
       </c>
-      <c r="E252" s="1">
+      <c r="E252" s="4">
         <v>1622.6823218404509</v>
       </c>
-      <c r="F252" s="2"/>
+      <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="4">
         <v>1482.9987005019698</v>
       </c>
       <c r="C253" s="7">
         <v>1466.9929962980625</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="4">
         <v>1456.9175458294367</v>
       </c>
-      <c r="E253" s="1">
+      <c r="E253" s="4">
         <v>1622.0136755534581</v>
       </c>
-      <c r="F253" s="2"/>
+      <c r="F253" s="1"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="4">
         <v>1577.2768186151129</v>
       </c>
       <c r="C254" s="7">
         <v>1394.5027557388585</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="4">
         <v>1527.577535371174</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="4">
         <v>1904.3038353419854</v>
       </c>
-      <c r="F254" s="2"/>
+      <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="4">
         <v>1394.9927135370472</v>
       </c>
       <c r="C255" s="7">
         <v>1554.2872727358747</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="4">
         <v>1542.5342807493889</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255" s="4">
         <v>1849.1647591988958</v>
       </c>
-      <c r="F255" s="2"/>
+      <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="4">
         <v>1241.2124463471407</v>
       </c>
       <c r="C256" s="7">
         <v>1433.7223874233582</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="4">
         <v>1433.5889666874793</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="4">
         <v>1458.7111988340721</v>
       </c>
-      <c r="F256" s="2"/>
+      <c r="F256" s="1"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="4">
         <v>1552.3078160702196</v>
       </c>
       <c r="C257" s="7">
         <v>1468.0074802566157</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="4">
         <v>1502.3413481322152</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257" s="4">
         <v>1406.2644717983032</v>
       </c>
-      <c r="F257" s="2"/>
+      <c r="F257" s="1"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="4">
         <v>1346.8020215778868</v>
       </c>
       <c r="C258" s="7">
         <v>1332.6891025059649</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="4">
         <v>1447.9391555337552</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="4">
         <v>1662.4717568531564</v>
       </c>
-      <c r="F258" s="2"/>
+      <c r="F258" s="1"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="4">
         <v>1368.9488784164282</v>
       </c>
       <c r="C259" s="7">
         <v>1340.9947311069388</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="4">
         <v>1483.7558695440493</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259" s="4">
         <v>1463.6206255947909</v>
       </c>
-      <c r="F259" s="2"/>
+      <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="4">
         <v>1432.7644183665495</v>
       </c>
       <c r="C260" s="7">
         <v>1315.4299139760096</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="4">
         <v>1402.5323558454536</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260" s="4">
         <v>1765.5390407647772</v>
       </c>
-      <c r="F260" s="2"/>
+      <c r="F260" s="1"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="4">
         <v>1764.1234646005323</v>
       </c>
       <c r="C261" s="7">
         <v>1319.5897164379801</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="4">
         <v>1407.3776806388994</v>
       </c>
-      <c r="E261" s="1">
+      <c r="E261" s="4">
         <v>1848.161160247141</v>
       </c>
-      <c r="F261" s="2"/>
+      <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="4">
         <v>1267.5030086611048</v>
       </c>
       <c r="C262" s="7">
         <v>1325.9531927914854</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="4">
         <v>1428.9857794371565</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262" s="4">
         <v>2101.1709928499722</v>
       </c>
-      <c r="F262" s="2"/>
+      <c r="F262" s="1"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="4">
         <v>1615.0597723676183</v>
       </c>
       <c r="C263" s="7">
         <v>1438.3750138977528</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="4">
         <v>1428.8562345760859</v>
       </c>
-      <c r="E263" s="1">
+      <c r="E263" s="4">
         <v>1715.202658621535</v>
       </c>
-      <c r="F263" s="2"/>
+      <c r="F263" s="1"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="4">
         <v>1472.1853864700333</v>
       </c>
       <c r="C264" s="7">
         <v>1278.3449037405346</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="4">
         <v>1505.8516104439241</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="4">
         <v>1998.4953372062564</v>
       </c>
-      <c r="F264" s="2"/>
+      <c r="F264" s="1"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="4">
         <v>1271.5382985498311</v>
       </c>
       <c r="C265" s="7">
         <v>1275.5942095944963</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="4">
         <v>1471.4554347345661</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E265" s="4">
         <v>1915.6006760030346</v>
       </c>
-      <c r="F265" s="2"/>
+      <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="4">
         <v>1548.9052224189384</v>
       </c>
       <c r="C266" s="7">
         <v>1221.8169644585244</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="4">
         <v>1382.3999932361114</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266" s="4">
         <v>2212.1259578366362</v>
       </c>
-      <c r="F266" s="2"/>
+      <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="4">
         <v>1321.973651363088</v>
       </c>
       <c r="C267" s="7">
         <v>1353.3123691772837</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="4">
         <v>1430.2768053266748</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267" s="4">
         <v>1935.4637068840268</v>
       </c>
-      <c r="F267" s="2"/>
+      <c r="F267" s="1"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="4">
         <v>1466.2395406771343</v>
       </c>
       <c r="C268" s="7">
         <v>1368.143188925199</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="4">
         <v>1451.5986960040889</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268" s="4">
         <v>1938.7079336288898</v>
       </c>
-      <c r="F268" s="2"/>
+      <c r="F268" s="1"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="4">
         <v>1497.0745686454006</v>
       </c>
       <c r="C269" s="7">
         <v>1417.9849569188011</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="4">
         <v>1441.2044812986194</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269" s="4">
         <v>2031.7284721135218</v>
       </c>
-      <c r="F269" s="2"/>
+      <c r="F269" s="1"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="4">
         <v>1200.3571052445666</v>
       </c>
       <c r="C270" s="7">
         <v>1189.5088397174204</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="4">
         <v>1428.7185048610986</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270" s="4">
         <v>1768.6732389209938</v>
       </c>
-      <c r="F270" s="2"/>
+      <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="4">
         <v>1563.0768108716222</v>
       </c>
       <c r="C271" s="7">
         <v>1247.0100283630327</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="4">
         <v>1456.8052464874756</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="4">
         <v>1674.7790127971248</v>
       </c>
-      <c r="F271" s="2"/>
+      <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="4">
         <v>1628.8690152020099</v>
       </c>
       <c r="C272" s="7">
         <v>1351.0035655194042</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="4">
         <v>1465.1173323597288</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272" s="4">
         <v>1722.3032731521182</v>
       </c>
-      <c r="F272" s="2"/>
+      <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="4">
         <v>1440.0223862862315</v>
       </c>
       <c r="C273" s="7">
         <v>1190.783686980018</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="4">
         <v>1509.7490993747058</v>
       </c>
-      <c r="E273" s="1">
+      <c r="E273" s="4">
         <v>1780.10574794075</v>
       </c>
-      <c r="F273" s="2"/>
+      <c r="F273" s="1"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="4">
         <v>1368.50051836495</v>
       </c>
       <c r="C274" s="7">
         <v>1351.8031855235488</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="4">
         <v>1400.14803895212</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274" s="4">
         <v>1884.8736444687047</v>
       </c>
-      <c r="F274" s="2"/>
+      <c r="F274" s="1"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="4">
         <v>1655.8063864850801</v>
       </c>
       <c r="C275" s="7">
         <v>1212.0820266424462</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="4">
         <v>1415.1365554418574</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E275" s="4">
         <v>1534.2470989255726</v>
       </c>
-      <c r="F275" s="2"/>
+      <c r="F275" s="1"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="4">
         <v>1478.3516894710872</v>
       </c>
       <c r="C276" s="7">
         <v>1329.6535623153518</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="4">
         <v>1453.7631843636129</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E276" s="4">
         <v>2083.6388459599757</v>
       </c>
-      <c r="F276" s="2"/>
+      <c r="F276" s="1"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="4">
         <v>1464.7854300525241</v>
       </c>
       <c r="C277" s="7">
         <v>1025.1647028275718</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="4">
         <v>1337.786557716641</v>
       </c>
-      <c r="E277" s="1">
+      <c r="E277" s="4">
         <v>1900.6128647384162</v>
       </c>
-      <c r="F277" s="2"/>
+      <c r="F277" s="1"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="4">
         <v>1550.7871050849535</v>
       </c>
       <c r="C278" s="7">
         <v>1237.2880377574336</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="4">
         <v>1481.9105441673396</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278" s="4">
         <v>1750.5665790001046</v>
       </c>
-      <c r="F278" s="2"/>
+      <c r="F278" s="1"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="4">
         <v>1468.3009367143522</v>
       </c>
       <c r="C279" s="7">
         <v>1193.887440277309</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="4">
         <v>1478.2686312523485</v>
       </c>
-      <c r="E279" s="1">
+      <c r="E279" s="4">
         <v>2223.0707831424625</v>
       </c>
-      <c r="F279" s="2"/>
+      <c r="F279" s="1"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="4">
         <v>1314.2520172637969</v>
       </c>
       <c r="C280" s="7">
         <v>1117.3943015359293</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="4">
         <v>1487.4105605991015</v>
       </c>
-      <c r="E280" s="1">
+      <c r="E280" s="4">
         <v>1935.9325201513461</v>
       </c>
-      <c r="F280" s="2"/>
+      <c r="F280" s="1"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="4">
         <v>1361.6560507897202</v>
       </c>
       <c r="C281" s="7">
         <v>938.84293995897997</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="4">
         <v>1373.1054583655828</v>
       </c>
-      <c r="E281" s="1">
+      <c r="E281" s="4">
         <v>2163.0729623924776</v>
       </c>
-      <c r="F281" s="2"/>
+      <c r="F281" s="1"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="4">
         <v>1390.6219536167164</v>
       </c>
       <c r="C282" s="7">
         <v>1085.4957397955359</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="4">
         <v>1376.2689185548309</v>
       </c>
-      <c r="E282" s="1">
+      <c r="E282" s="4">
         <v>2099.7332094461235</v>
       </c>
-      <c r="F282" s="2"/>
+      <c r="F282" s="1"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="4">
         <v>1342.9962465961034</v>
       </c>
       <c r="C283" s="7">
         <v>1004.1704348732032</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="4">
         <v>1379.581621058375</v>
       </c>
-      <c r="E283" s="1">
+      <c r="E283" s="4">
         <v>1843.8448041575471</v>
       </c>
-      <c r="F283" s="2"/>
+      <c r="F283" s="1"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="4">
         <v>1308.2233796271066</v>
       </c>
       <c r="C284" s="7">
         <v>1086.5132112614142</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="4">
         <v>1501.8466638757404</v>
       </c>
-      <c r="E284" s="1">
+      <c r="E284" s="4">
         <v>1889.4397811364884</v>
       </c>
-      <c r="F284" s="2"/>
+      <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="4">
         <v>1294.4616015413033</v>
       </c>
       <c r="C285" s="7">
         <v>1054.9433811593456</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="4">
         <v>1419.1225363694512</v>
       </c>
-      <c r="E285" s="1">
+      <c r="E285" s="4">
         <v>1946.54216643824</v>
       </c>
-      <c r="F285" s="2"/>
+      <c r="F285" s="1"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="4">
         <v>1371.7452501881985</v>
       </c>
       <c r="C286" s="7">
         <v>974.10427033572626</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="4">
         <v>1433.1900846528918</v>
       </c>
-      <c r="E286" s="1">
+      <c r="E286" s="4">
         <v>1639.9867499723059</v>
       </c>
-      <c r="F286" s="2"/>
+      <c r="F286" s="1"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="4">
         <v>1313.7227937597386</v>
       </c>
       <c r="C287" s="7">
         <v>950.62310757846205</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="4">
         <v>1485.251955169048</v>
       </c>
-      <c r="E287" s="1">
+      <c r="E287" s="4">
         <v>1867.0535901337432</v>
       </c>
-      <c r="F287" s="2"/>
+      <c r="F287" s="1"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="4">
         <v>1563.2395802365982</v>
       </c>
       <c r="C288" s="7">
         <v>1150.4653660999918</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="4">
         <v>1356.4895791272397</v>
       </c>
-      <c r="E288" s="1">
+      <c r="E288" s="4">
         <v>1870.015628440296</v>
       </c>
-      <c r="F288" s="2"/>
+      <c r="F288" s="1"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="4">
         <v>1578.2198715149557</v>
       </c>
       <c r="C289" s="7">
         <v>1088.6541683765656</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="4">
         <v>1478.2879199299884</v>
       </c>
-      <c r="E289" s="1">
+      <c r="E289" s="4">
         <v>1773.0970925415704</v>
       </c>
-      <c r="F289" s="2"/>
+      <c r="F289" s="1"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="4">
         <v>1432.1743999976973</v>
       </c>
       <c r="C290" s="7">
         <v>1131.8543308913977</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="4">
         <v>1390.5420013138789</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290" s="4">
         <v>1724.1377902139873</v>
       </c>
-      <c r="F290" s="2"/>
+      <c r="F290" s="1"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="4">
         <v>1381.7262791004225</v>
       </c>
       <c r="C291" s="7">
         <v>998.59430733833881</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="4">
         <v>1499.1946153365504</v>
       </c>
-      <c r="E291" s="1">
+      <c r="E291" s="4">
         <v>1493.5656749569443</v>
       </c>
-      <c r="F291" s="2"/>
+      <c r="F291" s="1"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="4">
         <v>1251.8970718481787</v>
       </c>
       <c r="C292" s="7">
         <v>949.62885503877726</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="4">
         <v>1518.7416164758326</v>
       </c>
-      <c r="E292" s="1">
+      <c r="E292" s="4">
         <v>1885.5496616661544</v>
       </c>
-      <c r="F292" s="2"/>
+      <c r="F292" s="1"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="4">
         <v>1368.8010597339951</v>
       </c>
       <c r="C293" s="7">
         <v>929.4125436510094</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="4">
         <v>1321.8353106756699</v>
       </c>
-      <c r="E293" s="1">
+      <c r="E293" s="4">
         <v>1564.0316067241517</v>
       </c>
-      <c r="F293" s="2"/>
+      <c r="F293" s="1"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="4">
         <v>1546.7648241908023</v>
       </c>
       <c r="C294" s="7">
         <v>944.69318832388728</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="4">
         <v>1469.3411535153884</v>
       </c>
-      <c r="E294" s="1">
+      <c r="E294" s="4">
         <v>1515.7492130986177</v>
       </c>
-      <c r="F294" s="2"/>
+      <c r="F294" s="1"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="4">
         <v>1358.2094709941216</v>
       </c>
       <c r="C295" s="7">
         <v>854.01253121186267</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="4">
         <v>1406.6213872815013</v>
       </c>
-      <c r="E295" s="1">
+      <c r="E295" s="4">
         <v>1618.0204260201872</v>
       </c>
-      <c r="F295" s="2"/>
+      <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="4">
         <v>1457.0194218712936</v>
       </c>
       <c r="C296" s="7">
         <v>948.99116700474121</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="4">
         <v>1465.5108956114702</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296" s="4">
         <v>1924.567965739566</v>
       </c>
-      <c r="F296" s="2"/>
+      <c r="F296" s="1"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="4">
         <v>1339.7089238637527</v>
       </c>
       <c r="C297" s="7">
         <v>887.12657684673025</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="4">
         <v>1512.6721176941912</v>
       </c>
-      <c r="E297" s="1">
+      <c r="E297" s="4">
         <v>1506.5425762473101</v>
       </c>
-      <c r="F297" s="2"/>
+      <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="4">
         <v>1508.1646218922288</v>
       </c>
       <c r="C298" s="7">
         <v>720.56612959314225</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="4">
         <v>1481.0545551085684</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298" s="4">
         <v>1690.3609778368739</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="1"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="4">
         <v>1482.5430064622567</v>
       </c>
       <c r="C299" s="7">
         <v>844.90432551693016</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="4">
         <v>1460.8454110365049</v>
       </c>
-      <c r="E299" s="1">
+      <c r="E299" s="4">
         <v>1733.4584200480035</v>
       </c>
-      <c r="F299" s="2"/>
+      <c r="F299" s="1"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="4">
         <v>1406.3065161934444</v>
       </c>
       <c r="C300" s="7">
         <v>802.43191456279419</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="4">
         <v>1406.1537325576357</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300" s="4">
         <v>1545.6410079726497</v>
       </c>
-      <c r="F300" s="2"/>
+      <c r="F300" s="1"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="4">
         <v>1515.3485660740976</v>
       </c>
       <c r="C301" s="7">
         <v>902.55938889043853</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="4">
         <v>1408.5574332964266</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301" s="4">
         <v>1690.7036170986778</v>
       </c>
-      <c r="F301" s="2"/>
+      <c r="F301" s="1"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="4">
         <v>1342.2793924888913</v>
       </c>
       <c r="C302" s="7">
         <v>791.29205313391299</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="4">
         <v>1504.6527025966629</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302" s="4">
         <v>1669.4039475797824</v>
       </c>
-      <c r="F302" s="2"/>
+      <c r="F302" s="1"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="4">
         <v>1461.1198968859305</v>
       </c>
       <c r="C303" s="7">
         <v>765.03856715601671</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="4">
         <v>1494.7876701257701</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303" s="4">
         <v>1427.9366174518709</v>
       </c>
-      <c r="F303" s="2"/>
+      <c r="F303" s="1"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="4">
         <v>1545.7203558800502</v>
       </c>
       <c r="C304" s="7">
         <v>696.51804422542693</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="4">
         <v>1529.5662476665061</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="4">
         <v>1735.6019080822211</v>
       </c>
-      <c r="F304" s="2"/>
+      <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="4">
         <v>1525.4348796695219</v>
       </c>
       <c r="C305" s="7">
         <v>699.02478136429215</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="4">
         <v>1479.9123321305149</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305" s="4">
         <v>1583.6000940467804</v>
       </c>
-      <c r="F305" s="2"/>
+      <c r="F305" s="1"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="4">
         <v>1461.4267755053647</v>
       </c>
       <c r="C306" s="7">
         <v>650.21729709438932</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="4">
         <v>1492.2069416012378</v>
       </c>
-      <c r="E306" s="1">
+      <c r="E306" s="4">
         <v>1534.4872935449669</v>
       </c>
-      <c r="F306" s="2"/>
+      <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="4">
         <v>1519.2647885393051</v>
       </c>
       <c r="C307" s="7">
         <v>715.14359051484973</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="4">
         <v>1446.6786606617902</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E307" s="4">
         <v>1597.2789631540572</v>
       </c>
-      <c r="F307" s="2"/>
+      <c r="F307" s="1"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="4">
         <v>1563.7290846404753</v>
       </c>
       <c r="C308" s="7">
         <v>617.39070708124052</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="4">
         <v>1452.6734932616282</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308" s="4">
         <v>1674.633339020158</v>
       </c>
-      <c r="F308" s="2"/>
+      <c r="F308" s="1"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="4">
         <v>1250.680330517434</v>
       </c>
       <c r="C309" s="7">
         <v>636.84439885700033</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="4">
         <v>1478.3540680535355</v>
       </c>
-      <c r="E309" s="1">
+      <c r="E309" s="4">
         <v>1297.6780347341</v>
       </c>
-      <c r="F309" s="2"/>
+      <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="4">
         <v>1417.5951529462941</v>
       </c>
       <c r="C310" s="7">
         <v>591.08590159243022</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="4">
         <v>1397.2191443832439</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310" s="4">
         <v>1633.6986914361062</v>
       </c>
-      <c r="F310" s="2"/>
+      <c r="F310" s="1"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="4">
         <v>1552.5225953812846</v>
       </c>
       <c r="C311" s="7">
         <v>524.68885965905349</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="4">
         <v>1421.3172083950506</v>
       </c>
-      <c r="E311" s="1">
+      <c r="E311" s="4">
         <v>1550.2149401586623</v>
       </c>
-      <c r="F311" s="2"/>
+      <c r="F311" s="1"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="4">
         <v>1595.7694635023411</v>
       </c>
       <c r="C312" s="7">
         <v>607.43847771101821</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="4">
         <v>1485.9256700511658</v>
       </c>
-      <c r="E312" s="1">
+      <c r="E312" s="4">
         <v>1426.8749656434156</v>
       </c>
-      <c r="F312" s="2"/>
+      <c r="F312" s="1"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="4">
         <v>1457.3348509683613</v>
       </c>
       <c r="C313" s="7">
         <v>483.18539856012865</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="4">
         <v>1469.5119660304335</v>
       </c>
-      <c r="E313" s="1">
+      <c r="E313" s="4">
         <v>1321.2256552917979</v>
       </c>
-      <c r="F313" s="2"/>
+      <c r="F313" s="1"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="4">
         <v>1474.9409930834922</v>
       </c>
       <c r="C314" s="7">
         <v>570.28363216532398</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="4">
         <v>1425.9254177317989</v>
       </c>
-      <c r="E314" s="1">
+      <c r="E314" s="4">
         <v>1343.0116593785838</v>
       </c>
-      <c r="F314" s="2"/>
+      <c r="F314" s="1"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="4">
         <v>1374.9387147584898</v>
       </c>
       <c r="C315" s="7">
         <v>555.6014811557244</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="4">
         <v>1472.3377750453812</v>
       </c>
-      <c r="E315" s="1">
+      <c r="E315" s="4">
         <v>1273.2785321340891</v>
       </c>
-      <c r="F315" s="2"/>
+      <c r="F315" s="1"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="4">
         <v>1405.0445032969656</v>
       </c>
       <c r="C316" s="7">
         <v>437.12030496466463</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="4">
         <v>1537.7941391698996</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316" s="4">
         <v>1469.0889284455072</v>
       </c>
-      <c r="F316" s="2"/>
+      <c r="F316" s="1"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="4">
         <v>1397.6351080169247</v>
       </c>
       <c r="C317" s="7">
         <v>449.53608780075479</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="4">
         <v>1471.4527338077257</v>
       </c>
-      <c r="E317" s="1">
+      <c r="E317" s="4">
         <v>1273.5120883915072</v>
       </c>
-      <c r="F317" s="2"/>
+      <c r="F317" s="1"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="4">
         <v>1232.8495191740328</v>
       </c>
       <c r="C318" s="7">
         <v>459.99945956536772</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="4">
         <v>1460.1327316978341</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318" s="4">
         <v>1524.7620928150329</v>
       </c>
-      <c r="F318" s="2"/>
+      <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="4">
         <v>1526.9573523253821</v>
       </c>
       <c r="C319" s="7">
         <v>468.11324063091018</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="4">
         <v>1489.4319050811882</v>
       </c>
-      <c r="E319" s="1">
+      <c r="E319" s="4">
         <v>1349.3390435562244</v>
       </c>
-      <c r="F319" s="2"/>
+      <c r="F319" s="1"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="4">
         <v>1310.0100419074529</v>
       </c>
       <c r="C320" s="7">
         <v>373.34254420875834</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="4">
         <v>1359.2158791673332</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320" s="4">
         <v>1162.5744042886029</v>
       </c>
-      <c r="F320" s="2"/>
+      <c r="F320" s="1"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="4">
         <v>1477.4533015671591</v>
       </c>
       <c r="C321" s="7">
         <v>341.9618680966222</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="4">
         <v>1477.6194917972025</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321" s="4">
         <v>1121.8668416177377</v>
       </c>
-      <c r="F321" s="2"/>
+      <c r="F321" s="1"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="4">
         <v>1247.3141753765144</v>
       </c>
       <c r="C322" s="7">
         <v>357.56327086788264</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="4">
         <v>1446.5929439446713</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322" s="4">
         <v>1035.6385920673322</v>
       </c>
-      <c r="F322" s="2"/>
+      <c r="F322" s="1"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="4">
         <v>1326.5444565433268</v>
       </c>
       <c r="C323" s="7">
         <v>341.67909203273251</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="4">
         <v>1428.4965441668576</v>
       </c>
-      <c r="E323" s="1">
+      <c r="E323" s="4">
         <v>1137.8598279297305</v>
       </c>
-      <c r="F323" s="2"/>
+      <c r="F323" s="1"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="4">
         <v>1524.1091245783907</v>
       </c>
       <c r="C324" s="7">
         <v>328.96710182550538</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="4">
         <v>1560.511318926646</v>
       </c>
-      <c r="E324" s="1">
+      <c r="E324" s="4">
         <v>963.32425554897884</v>
       </c>
-      <c r="F324" s="2"/>
+      <c r="F324" s="1"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="4">
         <v>1548.403623898236</v>
       </c>
       <c r="C325" s="7">
         <v>279.44227376176889</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="4">
         <v>1403.2349560184341</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="4">
         <v>1098.1040211170825</v>
       </c>
-      <c r="F325" s="2"/>
+      <c r="F325" s="1"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="4">
         <v>1432.5636815870357</v>
       </c>
       <c r="C326" s="7">
         <v>276.19083822489489</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="4">
         <v>1469.9511978116795</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="4">
         <v>1056.429527315328</v>
       </c>
-      <c r="F326" s="2"/>
+      <c r="F326" s="1"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="4">
         <v>1352.0602165259802</v>
       </c>
       <c r="C327" s="7">
         <v>256.4089930385735</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="4">
         <v>1483.1889409483019</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327" s="4">
         <v>999.08157075429426</v>
       </c>
-      <c r="F327" s="2"/>
+      <c r="F327" s="1"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="4">
         <v>1503.3907443906871</v>
       </c>
       <c r="C328" s="7">
         <v>244.44512694105904</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="4">
         <v>1406.7893648521203</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="4">
         <v>885.54355712921017</v>
       </c>
-      <c r="F328" s="2"/>
+      <c r="F328" s="1"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="4">
         <v>1520.2464459548971</v>
       </c>
       <c r="C329" s="7">
         <v>207.00548861206707</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="4">
         <v>1410.3813172279117</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329" s="4">
         <v>816.69527228013817</v>
       </c>
-      <c r="F329" s="2"/>
+      <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="4">
         <v>1645.2543891142691</v>
       </c>
       <c r="C330" s="7">
         <v>169.70391625531192</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="4">
         <v>1446.4330123217724</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330" s="4">
         <v>871.94356569360957</v>
       </c>
-      <c r="F330" s="2"/>
+      <c r="F330" s="1"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="4">
         <v>1396.0356901015373</v>
       </c>
       <c r="C331" s="7">
         <v>144.66204461562333</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="4">
         <v>1437.2818013816875</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331" s="4">
         <v>953.94451589681785</v>
       </c>
-      <c r="F331" s="2"/>
+      <c r="F331" s="1"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="4">
         <v>1743.9923675668913</v>
       </c>
       <c r="C332" s="7">
         <v>134.53601581678089</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="4">
         <v>1411.6354229527697</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="4">
         <v>825.96360751454142</v>
       </c>
-      <c r="F332" s="2"/>
+      <c r="F332" s="1"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="4">
         <v>1379.5815043808059</v>
       </c>
       <c r="C333" s="7">
         <v>98.406472985420024</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="4">
         <v>1421.7132292161091</v>
       </c>
-      <c r="E333" s="1">
+      <c r="E333" s="4">
         <v>863.40620357345881</v>
       </c>
-      <c r="F333" s="2"/>
+      <c r="F333" s="1"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="4">
         <v>1406.2775306527635</v>
       </c>
       <c r="C334" s="7">
         <v>82.945006876644342</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="4">
         <v>1381.7898123394082</v>
       </c>
-      <c r="E334" s="1">
+      <c r="E334" s="4">
         <v>735.3514227808613</v>
       </c>
-      <c r="F334" s="2"/>
+      <c r="F334" s="1"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="4">
         <v>1338.3896571252837</v>
       </c>
       <c r="C335" s="7">
         <v>54.77544504360629</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="4">
         <v>1413.6706364405518</v>
       </c>
-      <c r="E335" s="1">
+      <c r="E335" s="4">
         <v>735.88693935358253</v>
       </c>
-      <c r="F335" s="2"/>
+      <c r="F335" s="1"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="4">
         <v>1261.7033981612851</v>
       </c>
       <c r="C336" s="7">
         <v>31.663562900715217</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="4">
         <v>1444.5483995194279</v>
       </c>
-      <c r="E336" s="1">
+      <c r="E336" s="4">
         <v>685.05460899407421</v>
       </c>
-      <c r="F336" s="2"/>
+      <c r="F336" s="1"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="4">
         <v>1529.4277730602898</v>
       </c>
       <c r="C337" s="7">
         <v>7.8759948228174217</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="4">
         <v>1407.2917622795826</v>
       </c>
-      <c r="E337" s="1">
+      <c r="E337" s="4">
         <v>684.70304043168358</v>
       </c>
-      <c r="F337" s="2"/>
+      <c r="F337" s="1"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="4">
         <v>1452.7021428432579</v>
       </c>
       <c r="C338" s="7">
         <v>0</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="4">
         <v>1477.9784993127962</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E338" s="4">
         <v>573.66832197180509</v>
       </c>
-      <c r="F338" s="2"/>
+      <c r="F338" s="1"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="4">
         <v>1325.3024315814821</v>
       </c>
       <c r="C339" s="7">
         <v>0</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="4">
         <v>1527.333248882587</v>
       </c>
-      <c r="E339" s="1">
+      <c r="E339" s="4">
         <v>501.40505235535653</v>
       </c>
-      <c r="F339" s="2"/>
+      <c r="F339" s="1"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="4">
         <v>1315.795971991761</v>
       </c>
       <c r="C340" s="7">
         <v>0</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="4">
         <v>1508.2579772654703</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340" s="4">
         <v>513.99275299748797</v>
       </c>
-      <c r="F340" s="2"/>
+      <c r="F340" s="1"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="4">
         <v>1281.8384874943927</v>
       </c>
       <c r="C341" s="7">
         <v>0</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="4">
         <v>1497.7752581308926</v>
       </c>
-      <c r="E341" s="1">
+      <c r="E341" s="4">
         <v>469.88722734782999</v>
       </c>
-      <c r="F341" s="2"/>
+      <c r="F341" s="1"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="4">
         <v>1429.5473284371383</v>
       </c>
       <c r="C342" s="7">
         <v>0</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="4">
         <v>1512.5449765893211</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342" s="4">
         <v>422.12526222336533</v>
       </c>
-      <c r="F342" s="2"/>
+      <c r="F342" s="1"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="4">
         <v>1460.0034351584327</v>
       </c>
       <c r="C343" s="7">
         <v>0</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="4">
         <v>1384.6035117933393</v>
       </c>
-      <c r="E343" s="1">
+      <c r="E343" s="4">
         <v>384.74705333421412</v>
       </c>
-      <c r="F343" s="2"/>
+      <c r="F343" s="1"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="4">
         <v>1524.1990048370733</v>
       </c>
       <c r="C344" s="7">
         <v>0</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="4">
         <v>1400.1450836819486</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344" s="4">
         <v>342.16493346091147</v>
       </c>
-      <c r="F344" s="2"/>
+      <c r="F344" s="1"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="4">
         <v>1549.3258558801929</v>
       </c>
       <c r="C345" s="7">
         <v>0</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="4">
         <v>1473.7187620728612</v>
       </c>
-      <c r="E345" s="1">
+      <c r="E345" s="4">
         <v>340.6871738928541</v>
       </c>
-      <c r="F345" s="2"/>
+      <c r="F345" s="1"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="4">
         <v>1396.5032641874013</v>
       </c>
       <c r="C346" s="7">
         <v>0</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="4">
         <v>1375.416569649371</v>
       </c>
-      <c r="E346" s="1">
+      <c r="E346" s="4">
         <v>241.34493690708658</v>
       </c>
-      <c r="F346" s="2"/>
+      <c r="F346" s="1"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="4">
         <v>1445.8664811268843</v>
       </c>
       <c r="C347" s="7">
         <v>0</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="4">
         <v>1392.489857103848</v>
       </c>
-      <c r="E347" s="1">
+      <c r="E347" s="4">
         <v>181.26775895850014</v>
       </c>
-      <c r="F347" s="2"/>
+      <c r="F347" s="1"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="4">
         <v>1678.7266884353669</v>
       </c>
       <c r="C348" s="7">
         <v>0</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="4">
         <v>1426.5153892490409</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348" s="4">
         <v>176.63865951472681</v>
       </c>
-      <c r="F348" s="2"/>
+      <c r="F348" s="1"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="4">
         <v>1599.3950338401396</v>
       </c>
       <c r="C349" s="7">
         <v>0</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="4">
         <v>1470.6316030560381</v>
       </c>
-      <c r="E349" s="1">
+      <c r="E349" s="4">
         <v>104.16201407570132</v>
       </c>
-      <c r="F349" s="2"/>
+      <c r="F349" s="1"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="4">
         <v>1497.9839259949522</v>
       </c>
       <c r="C350" s="7">
         <v>0</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="4">
         <v>1406.505495752865</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350" s="4">
         <v>93.683531622031182</v>
       </c>
-      <c r="F350" s="2"/>
+      <c r="F350" s="1"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="4">
         <v>1450.2549213886373</v>
       </c>
       <c r="C351" s="7">
         <v>0</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="4">
         <v>1495.5803804782606</v>
       </c>
-      <c r="E351" s="1">
+      <c r="E351" s="4">
         <v>49.617340928334123</v>
       </c>
-      <c r="F351" s="2"/>
+      <c r="F351" s="1"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="4">
         <v>1473.0101405249136</v>
       </c>
       <c r="C352" s="7">
         <v>0</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="4">
         <v>1490.1326595344781</v>
       </c>
-      <c r="E352" s="1">
-        <v>0</v>
-      </c>
-      <c r="F352" s="2"/>
+      <c r="E352" s="4">
+        <v>0</v>
+      </c>
+      <c r="F352" s="1"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="4">
         <v>1395.6653429681066</v>
       </c>
       <c r="C353" s="7">
         <v>0</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="4">
         <v>1449.6349492021307</v>
       </c>
-      <c r="E353" s="1">
-        <v>0</v>
-      </c>
-      <c r="F353" s="2"/>
+      <c r="E353" s="4">
+        <v>0</v>
+      </c>
+      <c r="F353" s="1"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="4">
         <v>1446.9044436555259</v>
       </c>
       <c r="C354" s="7">
         <v>0</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="4">
         <v>1380.2922791642309</v>
       </c>
-      <c r="E354" s="1">
-        <v>0</v>
-      </c>
-      <c r="F354" s="2"/>
+      <c r="E354" s="4">
+        <v>0</v>
+      </c>
+      <c r="F354" s="1"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="4">
         <v>1573.2591112795153</v>
       </c>
       <c r="C355" s="7">
         <v>0</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="4">
         <v>1427.6158566929098</v>
       </c>
-      <c r="E355" s="1">
-        <v>0</v>
-      </c>
-      <c r="F355" s="2"/>
+      <c r="E355" s="4">
+        <v>0</v>
+      </c>
+      <c r="F355" s="1"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="4">
         <v>1551.4507328896175</v>
       </c>
       <c r="C356" s="7">
         <v>0</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="4">
         <v>1432.497225460429</v>
       </c>
-      <c r="E356" s="1">
-        <v>0</v>
-      </c>
-      <c r="F356" s="2"/>
+      <c r="E356" s="4">
+        <v>0</v>
+      </c>
+      <c r="F356" s="1"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="4">
         <v>1526.3014582810699</v>
       </c>
       <c r="C357" s="7">
         <v>0</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="4">
         <v>1412.9897676535818</v>
       </c>
-      <c r="E357" s="1">
-        <v>0</v>
-      </c>
-      <c r="F357" s="2"/>
+      <c r="E357" s="4">
+        <v>0</v>
+      </c>
+      <c r="F357" s="1"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="4">
         <v>1403.4700233324193</v>
       </c>
       <c r="C358" s="7">
         <v>0</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="4">
         <v>1426.9593979753179</v>
       </c>
-      <c r="E358" s="1">
-        <v>0</v>
-      </c>
-      <c r="F358" s="2"/>
+      <c r="E358" s="4">
+        <v>0</v>
+      </c>
+      <c r="F358" s="1"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="4">
         <v>1529.0496695646568</v>
       </c>
       <c r="C359" s="7">
         <v>0</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="4">
         <v>1458.8305072420185</v>
       </c>
-      <c r="E359" s="1">
-        <v>0</v>
-      </c>
-      <c r="F359" s="2"/>
+      <c r="E359" s="4">
+        <v>0</v>
+      </c>
+      <c r="F359" s="1"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="4">
         <v>1498.9433472127405</v>
       </c>
       <c r="C360" s="7">
         <v>0</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="4">
         <v>1437.5493008719163</v>
       </c>
-      <c r="E360" s="1">
-        <v>0</v>
-      </c>
-      <c r="F360" s="2"/>
+      <c r="E360" s="4">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="4">
         <v>1347.293198088782</v>
       </c>
       <c r="C361" s="7">
         <v>0</v>
       </c>
-      <c r="D361" s="1">
+      <c r="D361" s="4">
         <v>1493.4322889441225</v>
       </c>
-      <c r="E361" s="1">
-        <v>0</v>
-      </c>
-      <c r="F361" s="2"/>
+      <c r="E361" s="4">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
